--- a/biology/Zoologie/Faux-gavial/Faux-gavial.xlsx
+++ b/biology/Zoologie/Faux-gavial/Faux-gavial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme faux-gavial est un nom vernaculaire ambigu désignant en français deux espèces de crocodiliens de familles différentes, dont le nom est basé sur leur ressemblance physique avec le Gavial du Gange de la famille des Gavialidae mais qui ont toujours été considérés et acceptés comme n'étant pas apparentés à ce dernier malgré tout et appartenant à la famille des Crocodylidae  :
 le Faux-gavial d'Afrique ou Crocodile à nuque cuirassée ou Mecistops cataphractus (Cuvier, 1825).
